--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-021 - Pimpinan Cabang Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-021 - Pimpinan Cabang Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13BDDF0-899A-4479-8B3A-7CCBFA03A538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E277160A-E8D9-4DE1-A88F-9328E608F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0190" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,9 +146,6 @@
  - Excel sesuai dengan format yang di lampirkan pada BSDD</t>
   </si>
   <si>
-    <t>DGS-205</t>
-  </si>
-  <si>
     <t>1. login digisales portal dengan pimpinan cabang 19639
 2. buka menu product holding
 3. isi field npp sales sendiri dengan 39798, dengan field tahun, bulan, dan Jenis Nasabah  (tahun 2022 bulan februari) 
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>SCD0011-021</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -238,9 +238,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,14 +564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -580,143 +594,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="270" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" ht="270" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="12">
+        <v>19639</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9">
+        <v>39798</v>
+      </c>
+      <c r="M2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3">
-        <v>19639</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1">
-        <v>39798</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="10" t="str">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="14" t="str">
         <f>"Pembuktian Sales yang ada pada User " &amp; F2</f>
         <v>Pembuktian Sales yang ada pada User 19639</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="14" t="s">
         <v>31</v>
       </c>
     </row>
